--- a/data/Restoration_Synthesis_searchterms_HSBRelevance_091018.xlsx
+++ b/data/Restoration_Synthesis_searchterms_HSBRelevance_091018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mflor\Documents\TNC_2018\paper\data\searches\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mflor\Documents\GitHub\dryland_restoration_synthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB14D4C-CE16-42FF-930A-4DE19E645260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC04D2-7A59-48C2-974C-DFCC0484D18F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17048,8 +17048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A1015" workbookViewId="0">
+      <selection activeCell="C1030" sqref="C1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -67644,7 +67644,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S1035" xr:uid="{EEC128B2-6FBB-47F2-8795-3C388E735BFC}"/>
-  <sortState ref="A2:S1036">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S1036">
     <sortCondition descending="1" ref="F2:F1036"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
